--- a/admin/Notes.xlsx
+++ b/admin/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\GIT\GITHUB_MAIN\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D81D5F-EF53-40EE-A06D-91BDCE1746C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C3BD6-718A-4A34-963E-6562A97C1699}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Note</t>
   </si>
@@ -136,6 +136,39 @@
   </si>
   <si>
     <t>TP</t>
+  </si>
+  <si>
+    <t>sysNum</t>
+  </si>
+  <si>
+    <t>Signaux système</t>
+  </si>
+  <si>
+    <t>note tp</t>
+  </si>
+  <si>
+    <t>npTp</t>
+  </si>
+  <si>
+    <t>semestre1</t>
+  </si>
+  <si>
+    <t>semestre2</t>
+  </si>
+  <si>
+    <t>Semestre 1</t>
+  </si>
+  <si>
+    <t>Semestre 2</t>
+  </si>
+  <si>
+    <t>Bonus TP</t>
+  </si>
+  <si>
+    <t>nbTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 malus </t>
   </si>
 </sst>
 </file>
@@ -218,7 +251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -656,6 +695,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,7 +806,7 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +982,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,20 +993,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="12" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="12" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="12" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="1" fillId="12" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,13 +1246,49 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1108,6 +1325,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1133,6 +1360,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1565,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB65"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,32 +1823,31 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="5.7109375" customWidth="1"/>
-    <col min="25" max="27" width="5.7109375" style="1" customWidth="1"/>
-    <col min="28" max="256" width="8.85546875" customWidth="1"/>
+    <col min="14" max="19" width="10.85546875" customWidth="1"/>
+    <col min="20" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="29" width="5.7109375" style="1" customWidth="1"/>
+    <col min="30" max="258" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:29" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1609,41 +1855,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="66">
         <v>5</v>
       </c>
       <c r="O2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>COUNTA(N2:N6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="112"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="17">
         <v>1</v>
       </c>
@@ -1665,15 +1912,15 @@
       <c r="J3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="67">
+      <c r="K3" s="122"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="66">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+    <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="117" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1693,16 +1940,16 @@
         <f>IF(K5&gt;1,L4,0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="119">
         <v>4</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="66">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="118"/>
       <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1716,28 +1963,30 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10">
-        <f>N7</f>
-        <v>-0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K5" s="38">
         <f>ROUND(IF(D4="",0,((C4*C5+D4*D5+E4*E5+F4*F5+G4*G5+H4*H5+I4*I5)/SUM(C4:I4)))+J5,1)</f>
-        <v>4.3</v>
-      </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="L5" s="120"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="65">
+        <v>5</v>
+      </c>
+      <c r="O5" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="87"/>
+    </row>
+    <row r="6" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="117" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="14">
-        <f>IF(C7="",0,(SUM(D6:J6)))</f>
         <v>1</v>
       </c>
       <c r="D6" s="5">
@@ -1751,26 +2000,28 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7">
         <f>IF(K7&gt;1,L6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="101">
         <v>5</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
+      <c r="L6" s="115">
+        <v>5</v>
+      </c>
+      <c r="M6" s="114"/>
+      <c r="N6" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118"/>
       <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="44">
-        <f>(D7*D6+E7*E6+F7*F6+G7*G6+H7*H6)/SUM(D6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="10"/>
+        <f>D7</f>
+        <v>4.5</v>
+      </c>
+      <c r="D7" s="165">
+        <v>4.5</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1781,82 +2032,82 @@
       </c>
       <c r="K7" s="38">
         <f>ROUND(IF(D6="",0,((((D6*D7+E6*E7+F6*F7+G6*G7+H6*H7+I6*I7)/SUM(D6:I6))+ J7) +C7)/2 ),1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L7" s="116"/>
+      <c r="M7" s="64">
+        <f>IF(AND(K4=0,K6=0),"-",ROUND(IF(AND(K4=0,K6=0),"-",((K5*L4)+(K7*L6))/SUM(K4,K6)),1))</f>
+        <v>4.5</v>
+      </c>
+      <c r="N7" s="65">
+        <f>(AVERAGEA(N2:N6)-5)/3</f>
         <v>0</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="65">
-        <f>IF(AND(K4=0,K6=0),"-",ROUND(IF(AND(K4=0,K6=0),"-",((K5*L4)+(K7*L6))/SUM(K4,K6)),1))</f>
-        <v>4.3</v>
-      </c>
-      <c r="N7" s="66">
-        <f>((SUM(N2:N6))/O2-5)/O2</f>
-        <v>-0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
+    </row>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="62"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="62"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="87"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="48">
         <v>1</v>
       </c>
@@ -1878,13 +2129,13 @@
       <c r="J11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="62"/>
-    </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="61"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1906,27 +2157,29 @@
         <f>IF(K13&gt;0,L12,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="92">
         <v>3.5</v>
       </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="51"/>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="54"/>
-    </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="136"/>
+      <c r="AC12" s="54"/>
+    </row>
+    <row r="13" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="89"/>
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
@@ -1946,25 +2199,27 @@
         <f>ROUND(IF(D12="",0,((C12*C13+D12*D13+E12*E13+F12*F13+G12*G13+H12*H13+I12*I13)/SUM(C12:I12)))+J13,1)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="55"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
       <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="55"/>
       <c r="W13" s="52"/>
       <c r="X13" s="52"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="54"/>
-    </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="54"/>
+    </row>
+    <row r="14" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1984,27 +2239,29 @@
         <f>IF(K15&gt;0,L14,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L14" s="138">
+      <c r="L14" s="152">
         <v>3.5</v>
       </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="62"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="61"/>
       <c r="O14" s="58"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="55"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
       <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="55"/>
       <c r="W14" s="52"/>
       <c r="X14" s="52"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="54"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="54"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="103"/>
       <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
@@ -2022,34 +2279,34 @@
         <f>ROUND(IF(D14="",0,((C14*C15+D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15)/SUM(C14:I14)))+J15,1)</f>
         <v>3</v>
       </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
       <c r="V15" s="52"/>
       <c r="W15" s="52"/>
       <c r="X15" s="52"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="54"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="54"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2058,36 +2315,36 @@
       <c r="J16" s="6"/>
       <c r="K16" s="7">
         <f>IF(K17&gt;0,L16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="92">
         <v>3.5</v>
       </c>
-      <c r="L16" s="78">
-        <v>3.5</v>
-      </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
       <c r="W16" s="52"/>
       <c r="X16" s="52"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="54"/>
-    </row>
-    <row r="17" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="54"/>
+    </row>
+    <row r="17" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10">
-        <v>3</v>
-      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="46"/>
       <c r="G17" s="10"/>
@@ -2096,36 +2353,36 @@
       <c r="J17" s="10"/>
       <c r="K17" s="38">
         <f>ROUND(IF(D16="",0,((C16*C17+D16*D17+E16*E17+F16*F17+G16*G17+H16*H17+I16*I17)/SUM(C16:I16)))+J17,1)</f>
-        <v>3</v>
-      </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="93"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="51"/>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
       <c r="V17" s="52"/>
       <c r="W17" s="52"/>
       <c r="X17" s="52"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="54"/>
-    </row>
-    <row r="18" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="54"/>
+    </row>
+    <row r="18" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2134,36 +2391,36 @@
       <c r="J18" s="6"/>
       <c r="K18" s="7">
         <f>IF(K19&gt;0,L18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="92">
         <v>3.5</v>
       </c>
-      <c r="L18" s="78">
-        <v>3.5</v>
-      </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="52"/>
       <c r="U18" s="52"/>
       <c r="V18" s="52"/>
       <c r="W18" s="52"/>
       <c r="X18" s="52"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="54"/>
-    </row>
-    <row r="19" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="54"/>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="89"/>
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10">
-        <v>4</v>
-      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="46"/>
       <c r="G19" s="10"/>
@@ -2172,139 +2429,174 @@
       <c r="J19" s="10"/>
       <c r="K19" s="38">
         <f>ROUND(IF(D18="",0,((C18*C19+D18*D19+E18*E19+F18*F19+G18*G19+H18*H19+I18*I19)/SUM(C18:I18)))+J19,1)</f>
-        <v>4</v>
-      </c>
-      <c r="L19" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="93"/>
       <c r="M19" s="39">
         <f>IF(AND(K13=0,K15=0,K17=0,K19=0),"-",ROUND(IF(AND(K13=0,K15=0,K17=0,K19=0),"-",((K13*L12)+(K15*L14)+(K17*L16)+(K19*L18))/SUM(K12,K14,K16,K18)),1))</f>
-        <v>3.7</v>
-      </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="161" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="51"/>
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
       <c r="X19" s="52"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="54"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="54"/>
+    </row>
+    <row r="20" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="155"/>
+      <c r="P20" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="157"/>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
       <c r="V20" s="52"/>
       <c r="W20" s="52"/>
       <c r="X20" s="52"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="54"/>
-    </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123" t="s">
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="54"/>
+    </row>
+    <row r="21" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="61" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
+      <c r="P21" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="71" t="s">
+        <v>27</v>
+      </c>
       <c r="T21" s="52"/>
       <c r="U21" s="52"/>
       <c r="V21" s="52"/>
       <c r="W21" s="52"/>
       <c r="X21" s="52"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="54"/>
-    </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129" t="s">
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="54"/>
+    </row>
+    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="131" t="s">
+      <c r="K22" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="133" t="s">
+      <c r="L22" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="135" t="s">
+      <c r="M22" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="70">
         <v>0.1</v>
       </c>
-      <c r="O22" s="71">
+      <c r="O22" s="78">
+        <f>COUNTA(N22:N28)</f>
         <v>2</v>
       </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
+      <c r="P22" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="83">
+        <f>COUNTA(P22:P28)</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="79">
+        <v>4</v>
+      </c>
+      <c r="S22" s="72">
+        <f>COUNTA(R22:R28)</f>
+        <v>2</v>
+      </c>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
       <c r="V22" s="52"/>
       <c r="W22" s="52"/>
       <c r="X22" s="52"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="56"/>
-    </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="130"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="136"/>
+      <c r="AC22" s="56"/>
+    </row>
+    <row r="23" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="141"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="26">
         <v>1</v>
       </c>
@@ -2326,27 +2618,31 @@
       <c r="J23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="132"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="61">
+      <c r="K23" s="146"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="70">
         <v>0.3</v>
       </c>
-      <c r="O23" s="72"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S23" s="73"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="115" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="129" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -2356,7 +2652,9 @@
       <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2366,17 +2664,20 @@
         <f>IF(K25&gt;0,L24,0)</f>
         <v>4</v>
       </c>
-      <c r="L24" s="118">
+      <c r="L24" s="132">
         <v>4</v>
       </c>
-      <c r="M24" s="135"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="73"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-    </row>
-    <row r="25" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="37"/>
+    </row>
+    <row r="25" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="130"/>
       <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2685,9 @@
       <c r="D25" s="10">
         <v>3.7</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10">
+        <v>3.6</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2397,15 +2700,18 @@
         <f>ROUND(IF(D24="",0,((C24*C25+D24*D25+E24*E25+F24*F25+G24*G25+H24*H25+I24*I25)/SUM(C24:I24)))+J25,1)</f>
         <v>3.9</v>
       </c>
-      <c r="L25" s="119"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="73"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-    </row>
-    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="L25" s="133"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="37"/>
+    </row>
+    <row r="26" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2423,41 +2729,50 @@
         <f>IF(K27&gt;0,L26,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="101">
+      <c r="L26" s="115">
         <v>3.5</v>
       </c>
-      <c r="M26" s="135"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="73"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-    </row>
-    <row r="27" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="37"/>
+    </row>
+    <row r="27" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="135"/>
       <c r="B27" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="10">
+        <f>P29</f>
+        <v>0</v>
+      </c>
       <c r="K27" s="38">
         <f>ROUND(IF(D26="",0,((C26*C27+D26*D27+E26*E27+F26*F27+G26*G27+H26*H27+I26*I27)/SUM(C26:I26)))+J27,1)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="102"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="73"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-    </row>
-    <row r="28" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="115" t="s">
+      <c r="L27" s="116"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="37"/>
+    </row>
+    <row r="28" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="129" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -2465,29 +2780,34 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7">
         <f>IF(K29&gt;0,L28,0)</f>
         <v>2.5</v>
       </c>
-      <c r="L28" s="105">
+      <c r="L28" s="119">
         <v>2.5</v>
       </c>
-      <c r="M28" s="136"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="73"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-    </row>
-    <row r="29" spans="1:27" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="37"/>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="130"/>
       <c r="B29" s="21" t="s">
         <v>0</v>
       </c>
@@ -2499,378 +2819,398 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="10">
+        <f>R29</f>
+        <v>4.45</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="38">
         <f>ROUND(IF(D28="",0,((C28*C29+D28*D29+E28*E29+F28*F29+G28*G29+H28*H29+I28*I29)/SUM(C28:I28)))+J29,1)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="L29" s="106"/>
+      <c r="L29" s="120"/>
       <c r="M29" s="60">
         <f>IF(AND(K25=0,K27=0,K29=0),"-",ROUND(IF(AND(K25=0,K27=0,K29=0),"-",((K25*L24)+(K27*L26)+(K29*L28))/SUM(K24,K26,K28)),1))</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N29" s="61">
-        <f>(N22+N23)/O22</f>
+      <c r="N29" s="75">
+        <f>SUM(N22:N28)/O22</f>
         <v>0.2</v>
       </c>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="64"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75">
+        <f>SUM(P22:P28)/Q22</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75">
+        <f>(R22+R23)/S22</f>
+        <v>4.45</v>
+      </c>
+      <c r="S29" s="75"/>
+      <c r="T29" s="37"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="160"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="63"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="S35" s="37"/>
       <c r="T35" s="37"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="114"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V35" s="37"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N57" s="40"/>
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
@@ -2886,8 +3226,10 @@
       <c r="Z57" s="40"/>
       <c r="AA57" s="40"/>
       <c r="AB57" s="40"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57" s="40"/>
+      <c r="AD57" s="40"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N58" s="40"/>
       <c r="O58" s="40"/>
       <c r="P58" s="40"/>
@@ -2903,8 +3245,10 @@
       <c r="Z58" s="40"/>
       <c r="AA58" s="40"/>
       <c r="AB58" s="40"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="40"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
@@ -2920,8 +3264,10 @@
       <c r="Z59" s="40"/>
       <c r="AA59" s="40"/>
       <c r="AB59" s="40"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="40"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N60" s="40"/>
       <c r="O60" s="40"/>
       <c r="P60" s="40"/>
@@ -2937,8 +3283,10 @@
       <c r="Z60" s="40"/>
       <c r="AA60" s="40"/>
       <c r="AB60" s="40"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N61" s="40"/>
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
@@ -2954,8 +3302,10 @@
       <c r="Z61" s="40"/>
       <c r="AA61" s="40"/>
       <c r="AB61" s="40"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61" s="40"/>
+      <c r="AD61" s="40"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N62" s="40"/>
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
@@ -2971,8 +3321,10 @@
       <c r="Z62" s="40"/>
       <c r="AA62" s="40"/>
       <c r="AB62" s="40"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
@@ -2988,8 +3340,10 @@
       <c r="Z63" s="40"/>
       <c r="AA63" s="40"/>
       <c r="AB63" s="40"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63" s="40"/>
+      <c r="AD63" s="40"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N64" s="40"/>
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
@@ -3005,8 +3359,10 @@
       <c r="Z64" s="40"/>
       <c r="AA64" s="40"/>
       <c r="AB64" s="40"/>
-    </row>
-    <row r="65" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="AC64" s="40"/>
+      <c r="AD64" s="40"/>
+    </row>
+    <row r="65" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
@@ -3022,18 +3378,26 @@
       <c r="Z65" s="40"/>
       <c r="AA65" s="40"/>
       <c r="AB65" s="40"/>
+      <c r="AC65" s="40"/>
+      <c r="AD65" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="Z15:Z16"/>
+  <mergeCells count="53">
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="D22:I22"/>
@@ -3041,7 +3405,7 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AB21:AB22"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -3058,11 +3422,7 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="M10:M18"/>
     <mergeCell ref="A16:A17"/>
@@ -3071,85 +3431,101 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A10:B11"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5 K7 K29 K27 K25 Y22 Y18:Y20 Y16 Y13:Y14 K15 K13 K19 M7 M19 M29">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="between">
+  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M19 M29">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K7 K29 K27 K25 Y22 Y18:Y20 Y16 Y13:Y14 K15 K13 K19 M7 M29 M19">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="between">
+  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M29 M19">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="28" operator="equal">
+    <cfRule type="cellIs" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
       <formula>4.6</formula>
       <formula>5.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+      <formula>-0.00000001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>4.999999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
-      <formula>-0.00000001</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29 M19 M7">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>3.75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+      <formula>3.75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>3.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3202,7 +3578,7 @@
       </c>
       <c r="C5" s="42">
         <f>'Semestre 1 &amp; 2'!$M$7</f>
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3212,7 +3588,7 @@
       </c>
       <c r="C6" s="42">
         <f>'Semestre 1 &amp; 2'!M19</f>
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/admin/Notes.xlsx
+++ b/admin/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\GIT\GITHUB_MAIN\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C3BD6-718A-4A34-963E-6562A97C1699}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5771D84-F55F-47A5-B61B-4164D9859E6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semestre 1 &amp; 2" sheetId="1" r:id="rId1"/>
@@ -806,7 +806,7 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1043,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,9 +1284,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1815,7 +1818,7 @@
   <dimension ref="A1:AD65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,21 +1836,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1858,25 +1861,25 @@
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="115" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="66">
@@ -1890,7 +1893,7 @@
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="126"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="17">
         <v>1</v>
       </c>
@@ -1912,15 +1915,15 @@
       <c r="J3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
       <c r="N3" s="66">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="119" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1930,7 +1933,9 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1940,16 +1945,16 @@
         <f>IF(K5&gt;1,L4,0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="119">
+      <c r="L4" s="121">
         <v>4</v>
       </c>
-      <c r="M4" s="113"/>
+      <c r="M4" s="115"/>
       <c r="N4" s="65">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1962,9 @@
       <c r="D5" s="10">
         <v>4.5</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>3.8</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1967,28 +1974,26 @@
       </c>
       <c r="K5" s="38">
         <f>ROUND(IF(D4="",0,((C4*C5+D4*D5+E4*E5+F4*F5+G4*G5+H4*H5+I4*I5)/SUM(C4:I4)))+J5,1)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L5" s="120"/>
-      <c r="M5" s="113"/>
+        <v>4.2</v>
+      </c>
+      <c r="L5" s="122"/>
+      <c r="M5" s="115"/>
       <c r="N5" s="65">
         <v>5</v>
       </c>
-      <c r="O5" s="86" t="s">
+      <c r="O5" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="87"/>
+      <c r="P5" s="89"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="119" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="5">
         <v>1</v>
       </c>
@@ -2000,28 +2005,23 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7">
         <f>IF(K7&gt;1,L6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="117">
         <v>5</v>
       </c>
-      <c r="L6" s="115">
-        <v>5</v>
-      </c>
-      <c r="M6" s="114"/>
+      <c r="M6" s="116"/>
       <c r="N6" s="65">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="44">
-        <f>D7</f>
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="165">
-        <v>4.5</v>
-      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="K7" s="38">
         <f>ROUND(IF(D6="",0,((((D6*D7+E6*E7+F6*F7+G6*G7+H6*H7+I6*I7)/SUM(D6:I6))+ J7) +C7)/2 ),1)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L7" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="118"/>
       <c r="M7" s="64">
         <f>IF(AND(K4=0,K6=0),"-",ROUND(IF(AND(K4=0,K6=0),"-",((K5*L4)+(K7*L6))/SUM(K4,K6)),1))</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N7" s="65">
         <f>(AVERAGEA(N2:N6)-5)/3</f>
@@ -2061,53 +2061,53 @@
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="101"/>
       <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="100" t="s">
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="94" t="s">
+      <c r="K10" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="94" t="s">
+      <c r="L10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="92" t="s">
         <v>6</v>
       </c>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="101"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="48">
         <v>1</v>
       </c>
@@ -2129,13 +2129,13 @@
       <c r="J11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="91"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="61"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2145,7 +2145,9 @@
       <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2157,12 +2159,12 @@
         <f>IF(K13&gt;0,L12,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L12" s="92">
+      <c r="L12" s="94">
         <v>3.5</v>
       </c>
-      <c r="M12" s="91"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="61"/>
-      <c r="O12" s="151"/>
+      <c r="O12" s="153"/>
       <c r="P12" s="68"/>
       <c r="Q12" s="68"/>
       <c r="R12" s="49"/>
@@ -2175,11 +2177,11 @@
       <c r="Y12" s="52"/>
       <c r="Z12" s="52"/>
       <c r="AA12" s="53"/>
-      <c r="AB12" s="136"/>
+      <c r="AB12" s="138"/>
       <c r="AC12" s="54"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2189,9 @@
       <c r="D13" s="38">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10">
+        <v>5.3</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2197,12 +2201,12 @@
       <c r="J13" s="13"/>
       <c r="K13" s="38">
         <f>ROUND(IF(D12="",0,((C12*C13+D12*D13+E12*E13+F12*F13+G12*G13+H12*H13+I12*I13)/SUM(C12:I12)))+J13,1)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="91"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="95"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="61"/>
-      <c r="O13" s="151"/>
+      <c r="O13" s="153"/>
       <c r="P13" s="68"/>
       <c r="Q13" s="68"/>
       <c r="R13" s="49"/>
@@ -2215,11 +2219,11 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
       <c r="AA13" s="55"/>
-      <c r="AB13" s="136"/>
+      <c r="AB13" s="138"/>
       <c r="AC13" s="54"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="104" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2229,7 +2233,9 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2239,10 +2245,10 @@
         <f>IF(K15&gt;0,L14,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L14" s="152">
+      <c r="L14" s="154">
         <v>3.5</v>
       </c>
-      <c r="M14" s="91"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="61"/>
       <c r="O14" s="58"/>
       <c r="P14" s="68"/>
@@ -2261,7 +2267,7 @@
       <c r="AC14" s="54"/>
     </row>
     <row r="15" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
@@ -2269,20 +2275,22 @@
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>3.8</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="47">
-        <f>ROUND(IF(D14="",0,((C14*C15+D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15)/SUM(C14:I14)))+J15,1)</f>
-        <v>3</v>
-      </c>
-      <c r="L15" s="153"/>
-      <c r="M15" s="91"/>
+        <f>ROUND(IF(D14="",0,((C14*C15+D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15)/SUM(C14:I14)))+J15,1)+0.1</f>
+        <v>3.5</v>
+      </c>
+      <c r="L15" s="155"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="61"/>
-      <c r="O15" s="151"/>
+      <c r="O15" s="153"/>
       <c r="P15" s="68"/>
       <c r="Q15" s="68"/>
       <c r="R15" s="49"/>
@@ -2295,11 +2303,11 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="52"/>
       <c r="AA15" s="53"/>
-      <c r="AB15" s="136"/>
+      <c r="AB15" s="138"/>
       <c r="AC15" s="54"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="90" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2317,12 +2325,12 @@
         <f>IF(K17&gt;0,L16,0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="92">
+      <c r="L16" s="94">
         <v>3.5</v>
       </c>
-      <c r="M16" s="91"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="61"/>
-      <c r="O16" s="151"/>
+      <c r="O16" s="153"/>
       <c r="P16" s="68"/>
       <c r="Q16" s="68"/>
       <c r="R16" s="49"/>
@@ -2335,11 +2343,11 @@
       <c r="Y16" s="52"/>
       <c r="Z16" s="52"/>
       <c r="AA16" s="55"/>
-      <c r="AB16" s="136"/>
+      <c r="AB16" s="138"/>
       <c r="AC16" s="54"/>
     </row>
     <row r="17" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
@@ -2355,8 +2363,8 @@
         <f>ROUND(IF(D16="",0,((C16*C17+D16*D17+E16*E17+F16*F17+G16*G17+H16*H17+I16*I17)/SUM(C16:I16)))+J17,1)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="91"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="61"/>
       <c r="O17" s="67"/>
       <c r="P17" s="67"/>
@@ -2371,11 +2379,11 @@
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
       <c r="AA17" s="53"/>
-      <c r="AB17" s="136"/>
+      <c r="AB17" s="138"/>
       <c r="AC17" s="54"/>
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2393,10 +2401,10 @@
         <f>IF(K19&gt;0,L18,0)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="92">
+      <c r="L18" s="94">
         <v>3.5</v>
       </c>
-      <c r="M18" s="91"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="61"/>
       <c r="O18" s="67"/>
       <c r="P18" s="67"/>
@@ -2411,11 +2419,11 @@
       <c r="Y18" s="52"/>
       <c r="Z18" s="52"/>
       <c r="AA18" s="55"/>
-      <c r="AB18" s="136"/>
+      <c r="AB18" s="138"/>
       <c r="AC18" s="54"/>
     </row>
     <row r="19" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
@@ -2431,17 +2439,17 @@
         <f>ROUND(IF(D18="",0,((C18*C19+D18*D19+E18*E19+F18*F19+G18*G19+H18*H19+I18*I19)/SUM(C18:I18)))+J19,1)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="93"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="39">
         <f>IF(AND(K13=0,K15=0,K17=0,K19=0),"-",ROUND(IF(AND(K13=0,K15=0,K17=0,K19=0),"-",((K13*L12)+(K15*L14)+(K17*L16)+(K19*L18))/SUM(K12,K14,K16,K18)),1))</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="161" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="N19" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
       <c r="R19" s="49"/>
       <c r="S19" s="51"/>
       <c r="T19" s="52"/>
@@ -2469,18 +2477,18 @@
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
-      <c r="N20" s="154" t="s">
+      <c r="N20" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="155"/>
-      <c r="P20" s="163" t="s">
+      <c r="O20" s="157"/>
+      <c r="P20" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="156" t="s">
+      <c r="Q20" s="166"/>
+      <c r="R20" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="157"/>
+      <c r="S20" s="159"/>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
       <c r="V20" s="52"/>
@@ -2493,21 +2501,21 @@
       <c r="AC20" s="54"/>
     </row>
     <row r="21" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
       <c r="N21" s="69" t="s">
         <v>20</v>
       </c>
@@ -2534,31 +2542,31 @@
       <c r="Y21" s="52"/>
       <c r="Z21" s="52"/>
       <c r="AA21" s="53"/>
-      <c r="AB21" s="136"/>
+      <c r="AB21" s="138"/>
       <c r="AC21" s="54"/>
     </row>
     <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="143" t="s">
+      <c r="A22" s="141"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="27"/>
-      <c r="K22" s="145" t="s">
+      <c r="K22" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="147" t="s">
+      <c r="L22" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="151" t="s">
         <v>6</v>
       </c>
       <c r="N22" s="70">
@@ -2566,10 +2574,10 @@
       </c>
       <c r="O22" s="78">
         <f>COUNTA(N22:N28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="83">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q22" s="83">
         <f>COUNTA(P22:P28)</f>
@@ -2590,13 +2598,13 @@
       <c r="Y22" s="52"/>
       <c r="Z22" s="52"/>
       <c r="AA22" s="55"/>
-      <c r="AB22" s="136"/>
+      <c r="AB22" s="138"/>
       <c r="AC22" s="56"/>
     </row>
     <row r="23" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="144"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="26">
         <v>1</v>
       </c>
@@ -2618,9 +2626,9 @@
       <c r="J23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="151"/>
       <c r="N23" s="70">
         <v>0.3</v>
       </c>
@@ -2642,7 +2650,7 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -2664,11 +2672,13 @@
         <f>IF(K25&gt;0,L24,0)</f>
         <v>4</v>
       </c>
-      <c r="L24" s="132">
+      <c r="L24" s="134">
         <v>4</v>
       </c>
-      <c r="M24" s="149"/>
-      <c r="N24" s="70"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="87">
+        <v>-0.1</v>
+      </c>
       <c r="O24" s="81"/>
       <c r="P24" s="85"/>
       <c r="Q24" s="85"/>
@@ -2677,7 +2687,7 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
+      <c r="A25" s="132"/>
       <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
@@ -2694,14 +2704,14 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10">
         <f>N29</f>
-        <v>0.2</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="K25" s="38">
         <f>ROUND(IF(D24="",0,((C24*C25+D24*D25+E24*E25+F24*F25+G24*G25+H24*H25+I24*I25)/SUM(C24:I24)))+J25,1)</f>
-        <v>3.9</v>
-      </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="149"/>
+        <v>3.8</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="151"/>
       <c r="N25" s="70"/>
       <c r="O25" s="81"/>
       <c r="P25" s="85"/>
@@ -2711,7 +2721,7 @@
       <c r="T25" s="37"/>
     </row>
     <row r="26" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="136" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2727,12 +2737,12 @@
       <c r="J26" s="6"/>
       <c r="K26" s="7">
         <f>IF(K27&gt;0,L26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="115">
         <v>3.5</v>
       </c>
-      <c r="M26" s="149"/>
+      <c r="L26" s="117">
+        <v>3.5</v>
+      </c>
+      <c r="M26" s="151"/>
       <c r="N26" s="70"/>
       <c r="O26" s="81"/>
       <c r="P26" s="85"/>
@@ -2742,7 +2752,7 @@
       <c r="T26" s="37"/>
     </row>
     <row r="27" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="24" t="s">
         <v>0</v>
       </c>
@@ -2755,14 +2765,14 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10">
         <f>P29</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="38">
         <f>ROUND(IF(D26="",0,((C26*C27+D26*D27+E26*E27+F26*F27+G26*G27+H26*H27+I26*I27)/SUM(C26:I26)))+J27,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="149"/>
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="118"/>
+      <c r="M27" s="151"/>
       <c r="N27" s="70"/>
       <c r="O27" s="81"/>
       <c r="P27" s="85"/>
@@ -2772,7 +2782,7 @@
       <c r="T27" s="37"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="131" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -2780,24 +2790,26 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7">
         <f>IF(K29&gt;0,L28,0)</f>
         <v>2.5</v>
       </c>
-      <c r="L28" s="119">
+      <c r="L28" s="121">
         <v>2.5</v>
       </c>
-      <c r="M28" s="150"/>
+      <c r="M28" s="152"/>
       <c r="N28" s="70"/>
       <c r="O28" s="81"/>
       <c r="P28" s="85"/>
@@ -2807,7 +2819,7 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="21" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2827,9 @@
       <c r="D29" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>3.8</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2826,21 +2840,21 @@
       <c r="J29" s="10"/>
       <c r="K29" s="38">
         <f>ROUND(IF(D28="",0,((C28*C29+D28*D29+E28*E29+F28*F29+G28*G29+H28*H29+I28*I29)/SUM(C28:I28)))+J29,1)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L29" s="120"/>
+        <v>4.2</v>
+      </c>
+      <c r="L29" s="122"/>
       <c r="M29" s="60">
         <f>IF(AND(K25=0,K27=0,K29=0),"-",ROUND(IF(AND(K25=0,K27=0,K29=0),"-",((K25*L24)+(K27*L26)+(K29*L28))/SUM(K24,K26,K28)),1))</f>
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="N29" s="75">
         <f>SUM(N22:N28)/O22</f>
-        <v>0.2</v>
+        <v>0.10000000000000002</v>
       </c>
       <c r="O29" s="75"/>
       <c r="P29" s="75">
         <f>SUM(P22:P28)/Q22</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q29" s="75"/>
       <c r="R29" s="75">
@@ -2864,14 +2878,14 @@
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
       <c r="M30" s="61"/>
-      <c r="N30" s="158" t="s">
+      <c r="N30" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159" t="s">
+      <c r="O30" s="160"/>
+      <c r="P30" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="160"/>
+      <c r="Q30" s="162"/>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
     </row>
@@ -2965,12 +2979,12 @@
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="V35" s="37"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
@@ -3578,7 +3592,7 @@
       </c>
       <c r="C5" s="42">
         <f>'Semestre 1 &amp; 2'!$M$7</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3588,7 +3602,7 @@
       </c>
       <c r="C6" s="42">
         <f>'Semestre 1 &amp; 2'!M19</f>
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3598,7 +3612,7 @@
       </c>
       <c r="C7" s="43">
         <f>'Semestre 1 &amp; 2'!$M$29</f>
-        <v>4.0999999999999996</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/admin/Notes.xlsx
+++ b/admin/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\GIT\GITHUB_MAIN\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5771D84-F55F-47A5-B61B-4164D9859E6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE262CD5-27E7-4AAB-8213-1DCA84AE60AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Note</t>
   </si>
@@ -169,6 +169,39 @@
   </si>
   <si>
     <t xml:space="preserve">0.5 malus </t>
+  </si>
+  <si>
+    <t>specs</t>
+  </si>
+  <si>
+    <t>code + test composants</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>tests complets</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>projet</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -806,7 +839,7 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +873,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,18 +909,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -912,17 +936,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -939,52 +957,38 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,12 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1043,12 +1041,76 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,10 +1129,10 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,10 +1210,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,10 +1234,52 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,58 +1303,16 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,10 +1536,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF96B3D7"/>
       <color rgb="FFFF4B21"/>
       <color rgb="FFFFCC29"/>
       <color rgb="FFC2D69B"/>
-      <color rgb="FF96B3D7"/>
       <color rgb="FFFABF8F"/>
       <color rgb="FFD99694"/>
       <color rgb="FF94CDDD"/>
@@ -1815,42 +1877,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="2" customWidth="1"/>
     <col min="14" max="19" width="10.85546875" customWidth="1"/>
     <col min="20" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="29" width="5.7109375" style="1" customWidth="1"/>
-    <col min="30" max="258" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" customWidth="1"/>
+    <col min="30" max="31" width="12.5703125" customWidth="1"/>
+    <col min="32" max="258" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="123"/>
       <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1859,30 +1924,30 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="127" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="123" t="s">
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="66">
+      <c r="N2" s="55">
         <v>5</v>
       </c>
       <c r="O2">
@@ -1891,42 +1956,42 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="17">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>5</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="66">
+      <c r="K3" s="135"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
@@ -1945,17 +2010,17 @@
         <f>IF(K5&gt;1,L4,0)</f>
         <v>4</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="132">
         <v>4</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="65">
+      <c r="M4" s="126"/>
+      <c r="N4" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="9"/>
@@ -1972,170 +2037,229 @@
       <c r="J5" s="10">
         <v>0</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="34">
         <f>ROUND(IF(D4="",0,((C4*C5+D4*D5+E4*E5+F4*F5+G4*G5+H4*H5+I4*I5)/SUM(C4:I4)))+J5,1)</f>
         <v>4.2</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="65">
+      <c r="L5" s="133"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="54">
         <v>5</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="O5" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="89"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="7">
         <f>IF(K7&gt;1,L6,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="128">
+        <v>5</v>
+      </c>
+      <c r="M6" s="127"/>
+      <c r="N6" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="131"/>
+      <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="117">
-        <v>5</v>
-      </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="79">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4.7</v>
+      </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="11">
         <v>0</v>
       </c>
-      <c r="K7" s="38">
-        <f>ROUND(IF(D6="",0,((((D6*D7+E6*E7+F6*F7+G6*G7+H6*H7+I6*I7)/SUM(D6:I6))+ J7) +C7)/2 ),1)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="64">
+      <c r="K7" s="34">
+        <f>((D7+E7+F7)/3+H7)/2</f>
+        <v>3.4</v>
+      </c>
+      <c r="L7" s="129"/>
+      <c r="M7" s="53">
         <f>IF(AND(K4=0,K6=0),"-",ROUND(IF(AND(K4=0,K6=0),"-",((K5*L4)+(K7*L6))/SUM(K4,K6)),1))</f>
-        <v>4.2</v>
-      </c>
-      <c r="N7" s="65">
+        <v>3.8</v>
+      </c>
+      <c r="N7" s="54">
         <f>(AVERAGEA(N2:N6)-5)/3</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="61"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="102" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="96" t="s">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="M10" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="48">
+      <c r="A11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="41">
         <v>1</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="41">
         <v>2</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="41">
         <v>3</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="41">
         <v>4</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="41">
         <v>5</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="41">
         <v>6</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="61"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="97">
+        <v>20</v>
+      </c>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26">
+        <f>(P11/Q11)*5+1</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2159,34 +2283,34 @@
         <f>IF(K13&gt;0,L12,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="105">
         <v>3.5</v>
       </c>
-      <c r="M12" s="93"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="54"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="47"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="38">
+      <c r="D13" s="34">
         <v>4.9000000000000004</v>
       </c>
       <c r="E13" s="10">
@@ -2198,32 +2322,32 @@
       <c r="I13" s="10">
         <v>4.8</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="38">
+      <c r="J13" s="10"/>
+      <c r="K13" s="34">
         <f>ROUND(IF(D12="",0,((C12*C13+D12*D13+E12*E13+F12*F13+G12*G13+H12*H13+I12*I13)/SUM(C12:I12)))+J13,1)</f>
         <v>5</v>
       </c>
-      <c r="L13" s="95"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="54"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="47"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="115" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2245,30 +2369,30 @@
         <f>IF(K15&gt;0,L14,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L14" s="154">
+      <c r="L14" s="165">
         <v>3.5</v>
       </c>
-      <c r="M14" s="93"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="54"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="47"/>
     </row>
     <row r="15" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="9"/>
@@ -2283,115 +2407,126 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="47">
+      <c r="K15" s="34">
         <f>ROUND(IF(D14="",0,((C14*C15+D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15)/SUM(C14:I14)))+J15,1)+0.1</f>
         <v>3.5</v>
       </c>
-      <c r="L15" s="155"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="54"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="47"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="101" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
       <c r="K16" s="7">
         <f>IF(K17&gt;0,L16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="94">
         <v>3.5</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="54"/>
-    </row>
-    <row r="17" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="L16" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="M16" s="104"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="47"/>
+    </row>
+    <row r="17" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="102"/>
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="78">
+        <v>4.58</v>
+      </c>
+      <c r="E17" s="78">
+        <v>2.41</v>
+      </c>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="38">
-        <f>ROUND(IF(D16="",0,((C16*C17+D16*D17+E16*E17+F16*F17+G16*G17+H16*H17+I16*I17)/SUM(C16:I16)))+J17,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="95"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="54"/>
-    </row>
-    <row r="18" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="K17" s="34">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="L17" s="106"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="47"/>
+    </row>
+    <row r="18" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="101" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2399,264 +2534,293 @@
       <c r="J18" s="6"/>
       <c r="K18" s="7">
         <f>IF(K19&gt;0,L18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="94">
         <v>3.5</v>
       </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="54"/>
-    </row>
-    <row r="19" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+      <c r="L18" s="105">
+        <v>3.5</v>
+      </c>
+      <c r="M18" s="104"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="47"/>
+    </row>
+    <row r="19" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102"/>
       <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="80">
+        <v>4.7</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="38">
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34">
         <f>ROUND(IF(D18="",0,((C18*C19+D18*D19+E18*E19+F18*F19+G18*G19+H18*H19+I18*I19)/SUM(C18:I18)))+J19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="95"/>
-      <c r="M19" s="39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="35">
         <f>IF(AND(K13=0,K15=0,K17=0,K19=0),"-",ROUND(IF(AND(K13=0,K15=0,K17=0,K19=0),"-",((K13*L12)+(K15*L14)+(K17*L16)+(K19*L18))/SUM(K12,K14,K16,K18)),1))</f>
-        <v>4.3</v>
-      </c>
-      <c r="N19" s="163" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N19" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="54"/>
-    </row>
-    <row r="20" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="156" t="s">
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+    </row>
+    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="157"/>
-      <c r="P20" s="165" t="s">
+      <c r="O20" s="168"/>
+      <c r="P20" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="158" t="s">
+      <c r="Q20" s="177"/>
+      <c r="R20" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="159"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="54"/>
-    </row>
-    <row r="21" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139" t="s">
+      <c r="S20" s="170"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+    </row>
+    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="69" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="76" t="s">
+      <c r="O21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="82" t="s">
+      <c r="Q21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="77" t="s">
+      <c r="R21" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="71" t="s">
+      <c r="S21" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="54"/>
-    </row>
-    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="145" t="s">
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+    </row>
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="142"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="147" t="s">
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="149" t="s">
+      <c r="L22" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="151" t="s">
+      <c r="M22" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="N22" s="70">
+      <c r="N22" s="57">
         <v>0.1</v>
       </c>
-      <c r="O22" s="78">
+      <c r="O22" s="65">
         <f>COUNTA(N22:N28)</f>
         <v>3</v>
       </c>
-      <c r="P22" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="Q22" s="83">
+      <c r="P22" s="75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q22" s="70">
         <f>COUNTA(P22:P28)</f>
-        <v>1</v>
-      </c>
-      <c r="R22" s="79">
+        <v>2</v>
+      </c>
+      <c r="R22" s="66">
         <v>4</v>
       </c>
-      <c r="S22" s="72">
+      <c r="S22" s="59">
         <f>COUNTA(R22:R28)</f>
         <v>2</v>
       </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="56"/>
-    </row>
-    <row r="23" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="26">
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+    </row>
+    <row r="23" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="25">
         <v>1</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>2</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>3</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>4</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>5</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>6</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="148"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="70">
+      <c r="K23" s="149"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="57">
         <v>0.3</v>
       </c>
-      <c r="O23" s="80"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="73">
+      <c r="O23" s="67"/>
+      <c r="P23" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="60">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S23" s="73"/>
-      <c r="T23" s="62"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="131" t="s">
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+    </row>
+    <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="5">
         <v>1</v>
       </c>
@@ -2672,26 +2836,33 @@
         <f>IF(K25&gt;0,L24,0)</f>
         <v>4</v>
       </c>
-      <c r="L24" s="134">
+      <c r="L24" s="159">
         <v>4</v>
       </c>
-      <c r="M24" s="151"/>
-      <c r="N24" s="87">
+      <c r="M24" s="152"/>
+      <c r="N24" s="73">
         <v>-0.1</v>
       </c>
-      <c r="O24" s="81"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="37"/>
-    </row>
-    <row r="25" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
-      <c r="B25" s="21" t="s">
+      <c r="O24" s="68"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+    </row>
+    <row r="25" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="157"/>
+      <c r="B25" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="10">
         <v>3.7</v>
       </c>
@@ -2706,30 +2877,41 @@
         <f>N29</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="34">
         <f>ROUND(IF(D24="",0,((C24*C25+D24*D25+E24*E25+F24*F25+G24*G25+H24*H25+I24*I25)/SUM(C24:I24)))+J25,1)</f>
         <v>3.8</v>
       </c>
-      <c r="L25" s="135"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="37"/>
-    </row>
-    <row r="26" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
+      <c r="L25" s="160"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+    </row>
+    <row r="26" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2739,53 +2921,70 @@
         <f>IF(K27&gt;0,L26,0)</f>
         <v>3.5</v>
       </c>
-      <c r="L26" s="117">
+      <c r="L26" s="128">
         <v>3.5</v>
       </c>
-      <c r="M26" s="151"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="37"/>
-    </row>
-    <row r="27" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137"/>
-      <c r="B27" s="24" t="s">
+      <c r="M26" s="152"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+    </row>
+    <row r="27" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="162"/>
+      <c r="B27" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="81">
+        <v>3.9</v>
+      </c>
+      <c r="E27" s="34">
+        <v>5</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10">
-        <f>P29</f>
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="38">
-        <f>ROUND(IF(D26="",0,((C26*C27+D26*D27+E26*E27+F26*F27+G26*G27+H26*H27+I26*I27)/SUM(C26:I26)))+J27,1)</f>
-        <v>0.1</v>
-      </c>
-      <c r="L27" s="118"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="37"/>
-    </row>
-    <row r="28" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="131" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="34">
+        <f>(D27+E27)/2+P29</f>
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="L27" s="129"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+    </row>
+    <row r="28" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="4"/>
@@ -2806,24 +3005,31 @@
         <f>IF(K29&gt;0,L28,0)</f>
         <v>2.5</v>
       </c>
-      <c r="L28" s="121">
+      <c r="L28" s="132">
         <v>2.5</v>
       </c>
-      <c r="M28" s="152"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="37"/>
-    </row>
-    <row r="29" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
-      <c r="B29" s="21" t="s">
+      <c r="M28" s="153"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+    </row>
+    <row r="29" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="157"/>
+      <c r="B29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="10">
         <v>4.4000000000000004</v>
       </c>
@@ -2838,565 +3044,481 @@
         <v>4.45</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="38">
+      <c r="K29" s="34">
         <f>ROUND(IF(D28="",0,((C28*C29+D28*D29+E28*E29+F28*F29+G28*G29+H28*H29+I28*I29)/SUM(C28:I28)))+J29,1)</f>
         <v>4.2</v>
       </c>
-      <c r="L29" s="122"/>
-      <c r="M29" s="60">
+      <c r="L29" s="133"/>
+      <c r="M29" s="50">
         <f>IF(AND(K25=0,K27=0,K29=0),"-",ROUND(IF(AND(K25=0,K27=0,K29=0),"-",((K25*L24)+(K27*L26)+(K29*L28))/SUM(K24,K26,K28)),1))</f>
-        <v>2.6</v>
-      </c>
-      <c r="N29" s="75">
+        <v>4.2</v>
+      </c>
+      <c r="N29" s="62">
         <f>SUM(N22:N28)/O22</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75">
+      <c r="O29" s="62"/>
+      <c r="P29" s="77">
         <f>SUM(P22:P28)/Q22</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75">
+        <v>0.185</v>
+      </c>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62">
         <f>(R22+R23)/S22</f>
         <v>4.45</v>
       </c>
-      <c r="S29" s="75"/>
-      <c r="T29" s="37"/>
-    </row>
-    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="160" t="s">
+      <c r="S29" s="62"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+    </row>
+    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="160"/>
-      <c r="P30" s="161" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="162"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="Q30" s="173"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="163" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="94">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="94">
+        <v>4</v>
+      </c>
+      <c r="K31" s="94">
+        <f>I31*J31</f>
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+    </row>
+    <row r="32" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="94">
+        <v>0.4</v>
+      </c>
+      <c r="J32" s="94">
+        <v>3.5</v>
+      </c>
+      <c r="K32" s="94">
+        <f t="shared" ref="K32:K34" si="0">I32*J32</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="63"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="94">
+        <v>0.15</v>
+      </c>
+      <c r="J33" s="94">
+        <v>4</v>
+      </c>
+      <c r="K33" s="94">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="T33" s="52"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="J34" s="94">
+        <v>5</v>
+      </c>
+      <c r="K34" s="94">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="129"/>
-      <c r="Z35" s="129"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="130"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51">
+        <f>SUM(K31:K34)</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="W35" s="154"/>
+      <c r="X35" s="154"/>
+      <c r="Y35" s="154"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="155"/>
+      <c r="AB35" s="155"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="51"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
-      <c r="AC57" s="40"/>
-      <c r="AD57" s="40"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="40"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-      <c r="AC59" s="40"/>
-      <c r="AD59" s="40"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-      <c r="AC60" s="40"/>
-      <c r="AD60" s="40"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="40"/>
-      <c r="AD61" s="40"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-      <c r="AC63" s="40"/>
-      <c r="AD63" s="40"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="40"/>
-    </row>
-    <row r="65" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
-      <c r="AC65" s="40"/>
-      <c r="AD65" s="40"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+    </row>
+    <row r="65" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="N30:O30"/>
@@ -3405,9 +3527,7 @@
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O15:O16"/>
     <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="O12:O13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="AB17:AB18"/>
     <mergeCell ref="W35:Z35"/>
@@ -3419,7 +3539,10 @@
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="L26:L27"/>
-    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -3451,13 +3574,13 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A10:B11"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M19 M29">
+  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M19 M29 AA24 AA26">
     <cfRule type="cellIs" dxfId="23" priority="29" operator="between">
       <formula>4</formula>
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M29 M19">
+  <conditionalFormatting sqref="K5 K7 K29 K27 K25 AA22 AA18:AA20 AA16 AA13:AA14 K15 K13 K19 M7 M29 M19 AA24 AA26">
     <cfRule type="cellIs" dxfId="22" priority="27" operator="between">
       <formula>5.3</formula>
       <formula>6</formula>
@@ -3558,70 +3681,69 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="28"/>
-    <col min="2" max="2" width="43.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.5703125" style="28"/>
+    <col min="1" max="1" width="11.5703125" style="26"/>
+    <col min="2" max="2" width="43.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="e">
+      <c r="B3" s="33" t="e">
         <f>'Semestre 1 &amp; 2'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="41" t="e">
+      <c r="C3" s="36" t="e">
         <f>'Semestre 1 &amp; 2'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="e">
+      <c r="B4" s="32" t="e">
         <f>'Semestre 1 &amp; 2'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="42" t="e">
+      <c r="C4" s="37" t="e">
         <f>'Semestre 1 &amp; 2'!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="str">
+      <c r="B5" s="29" t="str">
         <f>'Semestre 1 &amp; 2'!$A$1</f>
         <v>Systèmes Embarqués ( 9ECTS)</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <f>'Semestre 1 &amp; 2'!$M$7</f>
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="str">
+      <c r="B6" s="31" t="str">
         <f>'Semestre 1 &amp; 2'!$A$9</f>
         <v>Informatique Avancé (14 ECTS)</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="37">
         <f>'Semestre 1 &amp; 2'!M19</f>
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="30" t="str">
         <f>'Semestre 1 &amp; 2'!$A21</f>
         <v>Systèmes numérique et électronique ( 10 ECTS)</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="38">
         <f>'Semestre 1 &amp; 2'!$M$29</f>
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="45" t="e">
+      <c r="B9" s="28"/>
+      <c r="C9" s="40" t="e">
         <f>AVERAGE(C3:C7)</f>
         <v>#REF!</v>
       </c>
